--- a/Data/symptoms_data.xlsx
+++ b/Data/symptoms_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelcosta/Desktop/PBL/PBL-HGO-1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B37F35-3259-4243-92FF-AB1371C801D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EDB87D-F973-3A45-9FD2-00AC2493DD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{A0B4D592-6103-064C-85FB-ADE9417CBC70}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{A0B4D592-6103-064C-85FB-ADE9417CBC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -392,16 +393,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -412,6 +421,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA1ABDD3-DEEE-4A42-966A-350EE0EF0ED6}" name="Tabela2" displayName="Tabela2" ref="A1:C99" totalsRowShown="0">
+  <autoFilter ref="A1:C99" xr:uid="{EA1ABDD3-DEEE-4A42-966A-350EE0EF0ED6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{08E9F755-7A4B-E447-A6EB-AC1A79C567BC}" name="symptom" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{FD056A62-7642-654F-9028-04D35C2A2EAF}" name="consultation"/>
+    <tableColumn id="3" xr3:uid="{0E9ED1BE-F082-2A4C-8BA3-7119A69A2E73}" name="protocolo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,14 +734,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D350B1-E576-1545-B9DC-25CF8B4E6A38}">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1186,7 +1208,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1197,7 +1219,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1208,7 +1230,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -1219,7 +1241,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -1230,7 +1252,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -1252,7 +1274,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49">
@@ -1263,7 +1285,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50">
@@ -1285,7 +1307,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52">
@@ -1296,7 +1318,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" t="s">
         <v>61</v>
       </c>
       <c r="B53">
@@ -1307,7 +1329,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -1318,7 +1340,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -1329,7 +1351,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -1340,7 +1362,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -1351,7 +1373,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -1362,7 +1384,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -1373,7 +1395,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -1384,7 +1406,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -1395,7 +1417,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B62">
@@ -1406,7 +1428,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B63">
@@ -1417,7 +1439,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -1428,7 +1450,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -1439,7 +1461,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66">
@@ -1450,7 +1472,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>67</v>
       </c>
       <c r="B67">
@@ -1461,7 +1483,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="A68" t="s">
         <v>68</v>
       </c>
       <c r="B68">
@@ -1472,7 +1494,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+      <c r="A69" t="s">
         <v>69</v>
       </c>
       <c r="B69">
@@ -1483,7 +1505,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70">
@@ -1494,7 +1516,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>71</v>
       </c>
       <c r="B71">
@@ -1505,7 +1527,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="A72" t="s">
         <v>72</v>
       </c>
       <c r="B72">
@@ -1527,7 +1549,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+      <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74">
@@ -1538,7 +1560,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="A75" t="s">
         <v>75</v>
       </c>
       <c r="B75">
@@ -1549,7 +1571,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="A76" t="s">
         <v>76</v>
       </c>
       <c r="B76">
@@ -1571,7 +1593,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+      <c r="A78" t="s">
         <v>78</v>
       </c>
       <c r="B78">
@@ -1582,7 +1604,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+      <c r="A79" t="s">
         <v>79</v>
       </c>
       <c r="B79">
@@ -1593,7 +1615,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="A80" t="s">
         <v>80</v>
       </c>
       <c r="B80">
@@ -1604,7 +1626,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+      <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81">
@@ -1615,7 +1637,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+      <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82">
@@ -1626,7 +1648,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+      <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83">
@@ -1637,7 +1659,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+      <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84">
@@ -1648,7 +1670,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+      <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85">
@@ -1659,7 +1681,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+      <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86">
@@ -1670,7 +1692,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+      <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87">
@@ -1681,7 +1703,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+      <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88">
@@ -1692,7 +1714,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+      <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89">
@@ -1703,7 +1725,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+      <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90">
@@ -1714,7 +1736,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+      <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91">
@@ -1725,7 +1747,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+      <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92">
@@ -1736,7 +1758,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+      <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93">
@@ -1747,7 +1769,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+      <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94">
@@ -1758,7 +1780,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+      <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95">
@@ -1769,7 +1791,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+      <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96">
@@ -1780,7 +1802,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+      <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97">
@@ -1791,7 +1813,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+      <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98">
@@ -1802,7 +1824,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+      <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99">
@@ -1814,5 +1836,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>